--- a/src/main/resources/营销测试数据.xlsx
+++ b/src/main/resources/营销测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\BiSystem\shierbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5296CA32-7E8C-40D8-8ADA-1FDDEB9FC8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB9D138-DA2C-48EB-ADB1-CF89E93D3215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="270" windowWidth="21105" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -880,244 +880,6 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>45079</v>
-      </c>
-      <c r="B34" s="3">
-        <v>78000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D34" s="4">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>45080</v>
-      </c>
-      <c r="B35" s="3">
-        <v>92000</v>
-      </c>
-      <c r="C35" s="3">
-        <v>11000</v>
-      </c>
-      <c r="D35" s="4">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>45081</v>
-      </c>
-      <c r="B36" s="3">
-        <v>105000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>13000</v>
-      </c>
-      <c r="D36" s="4">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>45082</v>
-      </c>
-      <c r="B37" s="3">
-        <v>88000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D37" s="4">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>45083</v>
-      </c>
-      <c r="B38" s="3">
-        <v>104000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D38" s="4">
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>45084</v>
-      </c>
-      <c r="B39" s="3">
-        <v>123000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>15000</v>
-      </c>
-      <c r="D39" s="4">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>45085</v>
-      </c>
-      <c r="B40" s="3">
-        <v>97000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="4">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>45086</v>
-      </c>
-      <c r="B41" s="3">
-        <v>116000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>14000</v>
-      </c>
-      <c r="D41" s="4">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>45087</v>
-      </c>
-      <c r="B42" s="3">
-        <v>98000</v>
-      </c>
-      <c r="C42" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D42" s="4">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>45088</v>
-      </c>
-      <c r="B43" s="3">
-        <v>82000</v>
-      </c>
-      <c r="C43" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D43" s="4">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>45089</v>
-      </c>
-      <c r="B44" s="3">
-        <v>103000</v>
-      </c>
-      <c r="C44" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D44" s="4">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>45090</v>
-      </c>
-      <c r="B45" s="3">
-        <v>92000</v>
-      </c>
-      <c r="C45" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D45" s="4">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45091</v>
-      </c>
-      <c r="B46" s="3">
-        <v>118000</v>
-      </c>
-      <c r="C46" s="3">
-        <v>14000</v>
-      </c>
-      <c r="D46" s="4">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>45092</v>
-      </c>
-      <c r="B47" s="3">
-        <v>107000</v>
-      </c>
-      <c r="C47" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D47" s="4">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>45093</v>
-      </c>
-      <c r="B48" s="3">
-        <v>96000</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D48" s="4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>45094</v>
-      </c>
-      <c r="B49" s="3">
-        <v>110000</v>
-      </c>
-      <c r="C49" s="3">
-        <v>13000</v>
-      </c>
-      <c r="D49" s="4">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>45095</v>
-      </c>
-      <c r="B50" s="3">
-        <v>89000</v>
-      </c>
-      <c r="C50" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D50" s="4">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
